--- a/data/outputs/gard/gard.xlsx
+++ b/data/outputs/gard/gard.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,6 +451,16 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>birthplace</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>deathplace</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>mainplace</t>
         </is>
       </c>
@@ -471,7 +481,13 @@
           <t>BARJETTON DE MONTREDON (de), Jacques. Chevalier, officier. Né en 1701. Décédé le 23-07-1760. Il débute sa carrière militaire en 1725 comme lieutenant puis il est nommé capitaine de grenadiers au régiment du Bearn en novembre 1757, après avoir reçu la croix de Saint-Louis en 1739. Grièvement blessé, il meurt à l’age de 59 ans, après la bataille de Sainte-Foy. Enterré au cimetière de l’Hôpital Général de Québec. (Les morts de la guerre de sept ans-J.Y. Bronze). (TO BE DELETED)</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>23-07-1760</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>UZÈS (30700)</t>
         </is>
@@ -493,7 +509,13 @@
           <t>BERTRAND dit Aulas, Pierre. Soldat. Né en 1736. Fils de Pierre Bertrand et de Jeanne Bédrine. Marié à Marie-Joseph Gauthier dite SaintGermain, à Boucherville (Qc), le 04-11-1760. Cinq enfants. Inhumé à Saint-Jean-François-Regis (Qc), le 25-04-1816. Soldat au régiment du RoyalRoussillon, compagnie de Du Cros. (FG-PRDH)</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Saint-Jean-François-Regis (Qc)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>AULAS (30120)</t>
         </is>
@@ -515,7 +537,13 @@
           <t>BIGONESSE dit Beaucaire, Jean. Fils de Antoine Bigonesse et de Marie Mousseau. Marié à Marie Raymond dite Toulouse, à Laprairie (Qc), en 1762. Contrat de mariage le 16-05-1762 (greffe Joseph Lalanne). Trois enfants. Inhumé à Chambly (Qc), le 10-05-1773. (FG-PRDH)</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Chambly (Qc)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>NÎMES (30300)</t>
         </is>
@@ -537,7 +565,13 @@
           <t>BOISLE* ou BAILLE dit Printemps, Simon. Soldat. Né le 16-02-1735. Fils de Jacques Boisle et de Marguerite Gressière. Marié à Marie-Jeanne Dufault, à Longueuil (Qc), le 02-02-1761. Trois enfants. Inhumé à Pointe-Olivier-SaintMathias (Qc), le 30-07-1799. Soldat au régiment du Royal-Roussillon, compagnie de Du Fresnoy. (FGPRDH)</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Pointe-Olivier-SaintMathias (Qc)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>CARSAN (30130)</t>
         </is>
@@ -559,7 +593,9 @@
           <t>BONNEL dit Lalancette, Pierre. Soldat. Né vers 1720. Fils de Jean Bonnel et de Louise Pezière ou Bezière. Marié à 1) Françoise Lanau. 2) Flavie-Anne Bertin dite Lafontaine, à Québec, en 1752. Contrat de mariage le 14-05-1752 (greffe Jean-Claude Panet). (FG)</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
         <is>
           <t>SAINT-GILLES-DU-GARD (30800)</t>
         </is>
@@ -581,7 +617,13 @@
           <t>BORET dit Sanschagrin, Joseph. Soldat. Fils de Joseph Boret et de Anne Esterne. Marié à MarieJosephe Brousson dite Lafleur, à Saint-Denis-sur-Richelieu (Qc), en 1765. Contrat de mariage le 15-06-1765 (greffe Louis-Simon Fichet). Un enfant. Inhumé à Saint-Charlessur-Richelieu (Qc), le 21-03-1799. Soldat au régiment de Guyenne. (FG-PRDH)</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Saint-Charles-sur-Richelieu (Qc)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>PONT-SAINT-ESPRIT (30130)</t>
         </is>
@@ -603,7 +645,13 @@
           <t>BRUNEL dit Lagiroflée, Louis. Soldat. Décédé le 10-01-1760. Soldat au régiment du Berry, compagnie d’Artigues. Protestant, il est enterré au cimetière de l’Hôpital Général de Québec, après avoir abjuré sa religion. (Les Morts de la guerre de sept ans-J.Y. Bronze). (TO BE DELETED)</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Québec</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>SAINT-HIPPOLYTE-DU-FORT (30170)</t>
         </is>
@@ -625,7 +673,13 @@
           <t>CHABRAND DELISLE*, David. Pasteur protestant. Né le 31-12-1730. Fils de David Chabrand, boulanger, et de Marguerite Roussel. Marié à Margaret-Peggy Henry, à Québec, le 01-10-1768. Huit enfants. Inhumé à Montréal (Qc), le 28-06-1794. En 1745 David Chabrand postule au synode de Basse-Cévenne pour étudier la théologie. Après 1750 il continue ses études au séminaire protestant clandestin à Lausanne (Suisse). Le 24 décembre 1764 il est ordonné prêtre de l’église d’Angleterre affecté à la paroisse de Londres. Puis en 1766 il est nommé aumônier de la garnison de Montréal (Qc). C’est à l’occasion de ce voyage que le nom de Delisle va remplacer son nom de famille. En 1768 il est enfin nommé officiellement ministre de la congrégation protestante de Montréal (Qc). Delisle se plaignait souvent auprès de ses supérieurs du peu de moyens mis à la disposition de son ministère et de la difficulté d’assurer les prédications, compte tenu des restrictions qui lui avaient été imposées pour la pratique de la langue anglaise. Diminué par la maladie depuis 1791, Delisle meurt à Montréal (Qc), à l’âge de 64 ans. (DBC)</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Montréal (Qc)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>ANDUZE (30140)</t>
         </is>
@@ -647,7 +701,13 @@
           <t>CHABRIER* dit Vadeboncoeur, Jean. Soldat. Baptisé le 18-05-1734. Fils de Jean Chabrier et de Jeanne Aubois. Marié à 1) Angélique Sicard de Carufel, à Maskinongé (Qc), en 1760. Contrat de Mariage le 15-09-1760 (greffe Pierre-François Rigaud).Cinq enfants. 2) MarieAngélique Migner, à Maskinongé (Qc), le 07-01-1784. Inhumé à Maskinongé (Qc), le 10-05-1804. Soldat au régiment de Languedoc. (FG-FO)</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Maskinongé (Qc)</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>MARUEJOLS-LES-GARDON (30350)</t>
         </is>
@@ -669,7 +729,9 @@
           <t>CHAPOTON*, Jean. Chirurgien. Soldat. Baptisé le 05-10-1686. Fils de André Chapoton, cordonnier, et Anne Cassaigne. Marié à Madeleine Esteve, à Detroit (Illinois), le 16-07-1720. Sept enfants. Soldat des troupes de la Marine, compagnie de Tonty. (FG)</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
         <is>
           <t>BAGNOLS-SUR-CÈZE (30200)</t>
         </is>
@@ -691,7 +753,9 @@
           <t>CHASTANG, François. Fils de François Chastang et de Jeanne Charot. Marié à Elisabeth Devergne, à la Nouvelle-Orléans (Louisiane), le 30-01-1730.Deux enfants. (FG)</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
         <is>
           <t>NÎMES (30300)</t>
         </is>
@@ -713,7 +777,9 @@
           <t>CHETOUCHE dit Vadeboncoeur, André. Fils de Mathias Chetouche et de Thérèse Geant. Marié à Catherine Rufiange dite Laviolette, en 1756. Contrat de mariage le 23-05-1756 (greffe André Souste). (NR)</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
         <is>
           <t>LANGLADE (30980)</t>
         </is>
@@ -737,6 +803,16 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>Né le 30-09-1754</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Montréal (Qc)</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>LANGLADE (30980)</t>
         </is>
       </c>
@@ -759,6 +835,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>Orgnac-l’Aven</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>UZÈS (30700)</t>
         </is>
       </c>
@@ -779,7 +861,9 @@
           <t>CLAPIER dit Aimable, Simon. Soldat. Fils de Pierre Clapier et de Marie Geoffroise ou Geoffroy. Marié à Madeleine Laguerce, à TroisRivières (Qc), en 1753. Contrat de mariage le 15-10-1753 (greffe Jean Leproust). Soldat dans les troupes de la Marine. (NR-PRDH)</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
         <is>
           <t>DOMAZAN (30390)</t>
         </is>
@@ -801,7 +885,13 @@
           <t>CORNIER* (de), Etienne. Chevalier, officier. Né le 06-09-1721. Célibataire. Décédé à Québec le 04-10-1759. Engagé volontaire en 1740 dans le régiment de Blaisois, il est promu capitaine en 1748. Capitaine de compagnie au régiment de Guyenne, il débarque en Nouvelle-France en1755. Ami de Montcalm, il participe à toutes les grandes batailles de la campagne contre les Anglais. Décoré de la croix de Saint-Louis. Blessé grièvement, lors de la bataille des Plaines d’Abraham, il décède quelques jours plus tard. Enterré au cimetière de l’Hôpital Général de Québec. (Les Morts de la guerre de sept ans-J.Y. Bronze-FO). (TO BE DELETED)</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Québec</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
         <is>
           <t>SAINT-HIPPOLYTE-DU-FORT (30170)</t>
         </is>
@@ -823,7 +913,13 @@
           <t>DELMAS, Martin. Fils de Pierre Delmas et Suzanne Lafont. Marié à Marie-Marguerite Circe, dite SaintMichel, à Saint-Denis-sur-Richelieu (Qc), en 1764. Contrat de Mariage le 04-08-1764 (greffe Louis de Aumasson de Courville). Quatre enfants. Inhumé à Saint-Denissur-Richelieu (Qc), le 19-03-1798. (FG-PRDH)</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Saint-Denis-sur-Richelieu (Qc)</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
         <is>
           <t>SUMÈNE (30440)</t>
         </is>
@@ -845,7 +941,9 @@
           <t>DRULHON, Louis. Fils de Pierre Drulhon et de Anne Corbesace. Marié à Marie-Françoise Héro, à la Nouvelle-Orléans (Louisiane), le 17-01-1725. (FG)</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
         <is>
           <t>ALÈS (30100)</t>
         </is>
@@ -867,7 +965,9 @@
           <t>DUFOUR dit Montpellier, JeanBaptiste. Fils de Antoine Dufour et de Jeanne Meunier. Marié à 1) Marie-Thérèse Laniel dite Desrosiers, à Lavaltrie (Qc), le 04-11-1760. 2) Marie-Louise Harnois, à Lavaltrie (Qc), en 1763. Contrat de mariage le 07-11-1763 (greffe Jean-Baptiste Daguilhe). (NR-PRDH)</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
         <is>
           <t>NÎMES (30300)</t>
         </is>
@@ -889,7 +989,13 @@
           <t>DUMAS dit Sansregret, Antoine. Né vers 1735. Fils de Jean Dumas et de Suzanne Girard. Marié à MarieGeneviève Marier, à Terrebonne (Qc), en 1761. Contrat de mariage le 20-05-1761 (greffe CharlesFrançois Coron). Un enfant. Inhumé à Terrebonne (Qc), le 19-01-1775. (FG-PRDH)</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Terrebonne (Qc)</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
         <is>
           <t>NÎMES (30300)</t>
         </is>
@@ -911,7 +1017,13 @@
           <t>DUPUY DE LISLOIS, Paul. Ecuyer, soldat, procureur du Roi. Né vers 1637. Fils de Simon Dupuy et de Suzanne Brusquet. Marié à Jeanne Couillard, à Québec, le 22-10-1668. Quatorze enfants. Inhumé à Québec, en l’église cathédrale, le 21-12-1713. Il arrive à Québec en 1665 avec la compagnie de Maximy, du régiment de Carignan. Les opérations militaires terminées, il reste au pays et épouse en 1668 Jeanne Couillard. Le couple reçoit en dot la moitié de l’île-aux-oies. Apres un bref passage à Beaucaire en 1669 pour mettre de l’ordre dans ses affaires, il rentre à Québec et envisage de s’installer définitivement, avec sa famille, à l’ile-aux-oies vers 1671 ou 1672. Il y vit paisiblement du revenu de ses terres jusqu’en 1686. Le 17 octobre 1686, sur ordre du Roi, Dupuy est nommé procureur du Roi en la prévôté de Québec par Brisay de Denonville et Bochart de Champigny. Il doit rentrer à Québec et prête serment le 24 octobre. Il occupera successivement les postes les plus importants de la prévôté et en 1695 il est nommé au grade de lieutenant particulier. Durant toutes ces années il a particulièrement œuvré à la mise en ordre et la conservation des registres de procès-verbaux de la prévôté. Il a participé en outre aux expéditions contre les Tsonnontouans en 1684 et 1687. Il donne par ailleurs libre cours à sa générosité en s’occupant, dès leur création, du Bureau des pauvres et de l’Hôpital général de Québec. En 1711, très gêné financièrement, il vend aux religieuses de l’HôtelDieu de Québec, sa seigneurie de l’île-aux-oies. Il meurt dans la pauvreté après avoir consacré toute sa vie au service de la communauté de Québec. (DBC)</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Québec</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
         <is>
           <t>BEAUCAIRE (30300)</t>
         </is>
@@ -933,7 +1045,9 @@
           <t>EVENTUREL, François. Fils de Antoine Eventurel et de Marguerite Lucrèce. Marié à Marie-Anne Bedard, à Québec, le 24-10-1820. (NR)</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
         <is>
           <t>BEAUCAIRE (30300)</t>
         </is>
@@ -955,7 +1069,9 @@
           <t>FAUCON*, Antoine. Sulpicien. Né le 18-02-1715. Il arrive à Québec en 1739 pour être très rapidement nommé à la tête de la paroisse de Sainte-Geneviève de Montréal (Qc), qui vient d’être créée. La première église est construite sous ses ordres en 1741. (FO)</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
         <is>
           <t>VEZENOBRES (30360)</t>
         </is>
@@ -977,7 +1093,13 @@
           <t>FERRIERE dit Laferrière, Pierre. Soldat. Fils de Jean Ferriere et de Suzanne Lacomble ou Lecomte. Marié à Félicité Gibeau dite Poitevin, à Laprairie (Qc), en 1778. Contrat de mariage le 18-02-1778 (greffe Pierre Lalanne). Inhumé à Saint-Jean-François-Regis (Qc), le 16-12-1809, après avoir abjuré sa foi protestante. Soldat au régiment du Royal-Roussillon, compagnie de Du Cros. (NR-PRDH)</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Saint-Jean-François-Regis (Qc)</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
         <is>
           <t>SUMÈNE (30440)</t>
         </is>
@@ -999,7 +1121,13 @@
           <t>FOURNIER dit l’Esprit, Claude. Fils de Claude Fournier et de Marie Vetrine. Marié à MarieAnne Bessette, à Chambly (Qc), en 1772. Contrat de mariage le 25-06-1772 (greffe Antoine Grisé). Deux enfants. Inhumé à Chambly (Qc), le 13-09-1794. (NR-PRDH)</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Chambly (Qc)</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
         <is>
           <t>PONT-SAINT-ESPRIT (30130)</t>
         </is>
@@ -1023,6 +1151,16 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t>Not specified in the text</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Jean Fresche-Pecque dit Lalancette</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
           <t>SAINT-ALEXANDRE (30130)</t>
         </is>
       </c>
@@ -1043,7 +1181,13 @@
           <t>GRASSET dit Lagrandeur, Joseph. Soldat. Fils de Jean Grasset et de Dauphine Rouche. Marié à Françoise Boissel, à Verchères (Qc), le 03-11-1761. Inhumé à La Présentation (Qc), le19-12-1809. Soldat au régiment de Guyenne. (FG-PRDH)</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>La Présentation (Qc)</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
         <is>
           <t>ARAMON (30390)</t>
         </is>
@@ -1065,7 +1209,9 @@
           <t>HARDOIN dit Lajeunesse et Belhumeur, Henri. Fils de Pierre Hardouin et de Jeanne Rigaud. Marié à 1) Marie-Thérèse Simon dite Léonard, à Longue-Pointe (Qc), en 1762. Contrat de mariage le 24-01-1764 (greffe Antoine Fouchet). Un enfant. 2) Marie-Reine Sureau dite Blondin, à Saint-Laurent (Qc), le 22-11-1773. Deux enfants. (FGPRDH)</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
         <is>
           <t>NÎMES (30300)</t>
         </is>
@@ -1087,7 +1233,13 @@
           <t>JULIEN, Jean. Né vers 1700. Fils de Jean Julien et de Marie Archai. Marié à Marie-Anne Debien, à Montréal (Qc), en 1728. Contrat de mariage le 21-11-1728 (greffe NicolasAuguste Guillet de Caumont). Deux enfants. Inhumé au cimetière de l’Hôpital Général de Montréal (Qc), le 12-01-1764. (FG-PRDH)</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Cimetière de l’Hôpital Général de Montréal (Qc)</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
         <is>
           <t>NÎMES (30300)</t>
         </is>
@@ -1109,7 +1261,13 @@
           <t>JULIEN dit Saint-Julien, Antoine. Soldat. Décédé le 28-05-1757. Soldat au régiment du Berry, compagnie de la Bretêche. Enterré au cimetière de l’Hôpital Général de Québec. (Les morts de la guerre de sept ans-J.Y. Bronze). (TO BE DELETED)</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Québec</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
         <is>
           <t>ALÈS (30100)</t>
         </is>
@@ -1131,7 +1289,9 @@
           <t>LACOSTE dit Languedoc, Alexandre. Soldat. Né vers 1665. Fils de Olivier Lacoste et de Jeanne Bastide. Marié à 1) Jeanne Robin dite Lapointe, à Boucherville (Qc), le 07-01-1688, 2) Marguerite Deniau, à Boucherville (Qc), en 1690. Contrat de mariage le 17-04-1690 (greffe Michel Moreau). Sept enfants. (FG)</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
         <is>
           <t>SAINT-JULIEN-DE-CASSAGNAS (30500)</t>
         </is>
@@ -1153,7 +1313,9 @@
           <t>LAURENT dit Saint-Laurent, Gilles. Fils de Simon Laurent et de Françoise. Marié à Anne Labrecque, à Saint-Laurent (Qc), le 24-01-1692. Six enfants. (FG)</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
         <is>
           <t>NÎMES (30300)</t>
         </is>
@@ -1175,7 +1337,9 @@
           <t>LEONARD, Louis. Fils de Jean Leonard et de Louise Calais. Marié à Marguerite Kistemacher, à la Nouvelle- Orléans (Louisiane), le 20-03-1728. (FG)</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
         <is>
           <t>ALÈS (30100)</t>
         </is>
@@ -1197,7 +1361,13 @@
           <t>LIRAC BONAVENTURE DE RESTAURAN*, Joseph. Officier. Né en 1735. Inhumé sur les Plaines d’Abraham le 13-09-1759. Il commence sa carrière militaire comme enseigne à l’age de 13 ans en 1748. Fait lieutenant en1754, il participe aux différentes batailles de la guerre de 7 ans, en NouvelleFrance. Promu capitaine de compagnie le 01-09-1759, il meurt sur les Plaines d’Abraham 13 jours plus tard. (Les morts de la guerre de sept ans-J.Y.Bronze). (TO BE DELETED)</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Plaines d'Abraham</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
         <is>
           <t>PONT-SAINT-ESPRIT (30130)</t>
         </is>
@@ -1219,7 +1389,9 @@
           <t>MARTIN dit Languedoc, Jean. Fils de Pierre Martin et de Anne-Isabelle Olivier. Marié à Marie-Françoise Laroche dite Larose,</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
         <is>
           <t>SAINT-COME-ET-MARUEJOLS (30870)</t>
         </is>
@@ -1241,7 +1413,13 @@
           <t>MENARD dit Brindamour, JeanBaptiste. Soldat. Né vers 1735. Fils de Jean-Baptiste Menard et de Madeleine Reboulle. Marié à MarieFrançoise Circe dite Saint-Michel, à Saint-Antoine-sur-Richelieu (Qc), en 1763. Contrat de mariage le 06-02-1763 (greffe Louis-Simon Frichet). Un enfant. Inhumé à SaintJean-François-Regis (Qc), le 17-05-1815. Soldat au régiment de Guyenne. (FG-PRDH)</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>SaintJean-François-Regis (Qc)</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
         <is>
           <t>SAINT-HIPPOLYTE-DU-FORT (30170)</t>
         </is>
@@ -1265,6 +1443,16 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
+          <t>Vers 1737 (exact location unknown)</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>PointeOlivier-Saint-Mathias (Qc)</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
           <t>AULAS (30120)</t>
         </is>
       </c>
@@ -1287,6 +1475,16 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
+          <t>Vauvert</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Québec</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
           <t>VESTRIC-ET-CANDIAC (30600)</t>
         </is>
       </c>
@@ -1307,7 +1505,9 @@
           <t>OLIVIER, Laurent. Fils de Pierre Olivier et de Claire Pairé. Marié à Marie-Josette Guibort, à Québec, en 1760. Contrat de mariage le 06-10-1760 (greffe Nicolas Duclos). (NR)</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
         <is>
           <t>SAINT-MAURICE-DE-CAZEVIEILLE (30360)</t>
         </is>
@@ -1329,7 +1529,13 @@
           <t>PASTOUR DE COSTEBELLE*, Philippe. Gouverneur de TerreNeuve. Né en novembre 1661. Fils de François-Barthélemy Pastour de Costebelle, avocat au parlement du Languedoc, et de Marie du Plessy. Marié à 1) Anne de Tour, à Plaisance (Terre Neuve.), le 01-02-1704. 2) Anne d’Entremont, à Port-Dauphin (Terre Neuve.), le 12-02-1716. Décédé à Louisbourg (NouvelleEcosse), en octobre 1717. (DBC-AD30-VOIR CHAPITRE 1)</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Louisbourg (Nouvelle-Écosse)</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
         <is>
           <t>SAINT-ALEXANDRE (30130)</t>
         </is>
@@ -1351,7 +1557,13 @@
           <t>PASTOUR DE COSTEBELLE*, Louis. Officier. Né en 1757. Fils de François-Barthélemy Pastour de Costebelle, avocat au parlement du Languedoc, et de Marie du Plessy. Inhumé à Saint-alexandre, le 02-03-1732. (DBC-AD30-VOIR CHAPITRE 1)</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Louis Pastour de Costebelle</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
         <is>
           <t>SAINT-ALEXANDRE (30130)</t>
         </is>
@@ -1373,7 +1585,9 @@
           <t>PERROT* ou PAROT, Albert. Soldat. Baptisé le 22-07-1735. Fils de Perrot et de Marie Monna ou Monial. Marié à Marie-Louise Letourneau, à Saint-Charlessur-Richelieu (Qc), le 07-01-1761. Soldat au régiment RoyalRoussillon, compagnie Du Cros. Il s’est enrôlé comme soldat en France, le14-07-1753. Il est le cousin de Louis-Alexandre Monna (FS-FO)</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
         <is>
           <t>AULAS (30120)</t>
         </is>
@@ -1395,7 +1609,9 @@
           <t>PLANTIER dit Saint-Esprit, François. Né vers 1738. Fils de François Plantier et de Anne Horas. Marié à Marie-Reine Janot dite Lachapelle, à Saint-Charles-surRichelieu (Qc), en 1764. Contrat de Mariage le 22-07-1764 (greffe Louis-Simon Frichet). Trois enfants. Inhumé à l’Acadie (Qc), le 30-07-1801. (FG-PRDH)</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
         <is>
           <t>PONT-SAINT-ESPRIT (30130)</t>
         </is>
@@ -1417,7 +1633,13 @@
           <t>PRAT, Louis. Fils de Jean Prat et de Anne Thomas. Marié à JeanneAngelique Gobeil, à Québec, en 1691. Contrat de Mariage le 21-07-1691 (greffe Gilles Rajotte). Un enfant. Inhumé à Québec, le 22-02-1726. (FG-PRDH)</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Québec</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
         <is>
           <t>NÎMES (30300)</t>
         </is>
@@ -1439,7 +1661,9 @@
           <t>RENE, Jean. Fils de Jean René et de Jeanne Jaquelin. Marié à Jeanne Griault, fille du roi, à Québec, en 1670. Contrat de mariage le 03-09-1670 (greffe Romain Becquet). (FG)</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
         <is>
           <t>NÎMES (30300)</t>
         </is>
@@ -1461,7 +1685,13 @@
           <t>RESTAURANT DE FONBONNE*, Louis. Chevalier, officier. Baptisé le 11-01-1705. Célibataire. Décédé le 13-09-1759. Promu lieutenant-colonel le 01-04-1755 au régiment de Guyenne, il est mortellement blessé à la bataille des Plaines d’Abraham et inhumé sur place. Il avait été fait chevalier de Saint-Louis le 01-04-1746. (Les morts de la guerre de sept ans-J.Y. Bronze). (TO BE DELETED)</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Plaines d'Abraham</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
         <is>
           <t>PONT-SAINT-ESPRIT (30130)</t>
         </is>
@@ -1483,7 +1713,9 @@
           <t>RICARD DE LA CHEVALERAY, Balthazar. Officier. Fils de Gabriel Ricard de la Chevaleray, écuyer, sieur de Villers et de Marie Jouart ou Jouast. Mariée à Françoise Voisin, à la Nouvelle-Orléans (Louisiane), le 12-08 1760. Commandant du fort de La Balise (Louisiane). (FG)</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
         <is>
           <t>AIGUES-MORTES (30220)</t>
         </is>
@@ -1507,6 +1739,16 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
+          <t>SORBIER DE VILLARS* François</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
           <t>UZÈS (30700)</t>
         </is>
       </c>
@@ -1527,7 +1769,13 @@
           <t>TRIAIRE dit Lavigueur, Pierre. Soldat. Né vers 1732. Fils de Jean Triaire et de Marie Pourtalès. Marié à Marie-Jeanne Cusson. Décédé à Laprairie (Qc), le 14-03-1783. Soldat au régiment du RoyalRoussillon, compagnie Du Cros, puis de Poulharies. (PM)</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Laprairie (Qc)</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
         <is>
           <t>SAINT-ANDRÉ-DE-MAJENCOULES (30570)</t>
         </is>
@@ -1549,7 +1797,13 @@
           <t>VALET, Jean-Baptiste. Fils de Jean Valet et de Anne Charles. Marié à Marie-Elisabeth Briere, à Québec, en 1708. Contrat de mariage le 30-11-1708 (greffe Laurent de Lacetière). Inhumé à Québec, le 03-01-1709. (FG-PRDH)</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Québec</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
         <is>
           <t>PONT-SAINT-ESPRIT (30130)</t>
         </is>
@@ -1571,7 +1825,9 @@
           <t>VERDET dit Laverdure, Guillaume. Fils de Jean-Pierre Verdet et de Anne Borel. Marié à Marie-Josephe Godin, à Neuville (Qc), en 1762. Contrat de Mariage le 21-04-1762 (greffe Jacques Gouget). Un enfant. (FG)</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
         <is>
           <t>NÎMES (30300)</t>
         </is>
@@ -1593,7 +1849,13 @@
           <t>VIALA, Pierre. Fils de Antoine Viala et de Jeanne Rigal. Marié à Madeleine Trottier, à Saint-Pierreles-Becquets (Qc), en 1756. Contrat de Mariage le 15-08-1756 (greffe Joseph Rouillard dit Fonville). Deux enfants. Inhumé à Saint-Pierre-lesBecquets (Qc), le 03-12-1782. (FG-PRDH)</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Saint-Pierre-les-Becquets (Qc)</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
         <is>
           <t>SAINT-MARTIAL (30440)</t>
         </is>
